--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_7_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_7_sawtooth_0_.xlsx
@@ -591,35 +591,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.265738313531035, 8.739210443614311]</t>
+          <t>[4.341465385498546, 8.6634833716468]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.203529425592876e-08</v>
+        <v>7.336176555128304e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.326663788882911e-08</v>
+        <v>1.467235311025661e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.471737098979002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8868424345884636, -1.0566317633695403]</t>
+          <t>[-1.8365266363327724, -1.1069475616252316]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.393507531588511e-11</v>
+        <v>2.398081733190338e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.393507531588511e-11</v>
+        <v>4.796163466380676e-14</v>
       </c>
       <c r="S2" t="n">
         <v>9.191736633596086</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.834275698267257, 10.549197568924916]</t>
+          <t>[7.833052100973644, 10.550421166218529]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -632,10 +632,10 @@
         <v>5.328828828828858</v>
       </c>
       <c r="X2" t="n">
-        <v>3.825825825825849</v>
+        <v>4.008008008008028</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.831831831831867</v>
+        <v>6.649649649649687</v>
       </c>
     </row>
     <row r="3">
@@ -672,35 +672,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.628669715737622, 9.538318417976578]</t>
+          <t>[4.561795289170945, 9.605192844543256]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.326663788882911e-08</v>
+        <v>7.279301872387123e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.326663788882911e-08</v>
+        <v>7.279301872387123e-08</v>
       </c>
       <c r="O3" t="n">
         <v>1.540921321580579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.9686056067539637]</t>
+          <t>[1.1258159859711174, 1.9560266571900407]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.047917308483193e-11</v>
+        <v>2.762456929872315e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.393507531588511e-11</v>
+        <v>2.762456929872315e-12</v>
       </c>
       <c r="S3" t="n">
         <v>9.192060258888038</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.6175131895949235, 10.766607328181152]</t>
+          <t>[7.6182520369748365, 10.765868480801238]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -713,10 +713,10 @@
         <v>18.32544544544572</v>
       </c>
       <c r="X3" t="n">
-        <v>16.672752752753</v>
+        <v>16.72136136136161</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.97813813813843</v>
+        <v>19.92952952952982</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_7_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_7_sawtooth_0_.xlsx
@@ -591,35 +591,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.341465385498546, 8.6634833716468]</t>
+          <t>[4.371834352252288, 8.633114404893059]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.336176555128304e-09</v>
+        <v>4.576514722742786e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.467235311025661e-08</v>
+        <v>9.153029445485572e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.471737098979002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327724, -1.1069475616252316]</t>
+          <t>[-1.8742634850245405, -1.0692107129334634]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.398081733190338e-14</v>
+        <v>3.47410988865704e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>3.47410988865704e-12</v>
       </c>
       <c r="S2" t="n">
         <v>9.191736633596086</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.833052100973644, 10.550421166218529]</t>
+          <t>[7.833810115604164, 10.549663151588009]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -632,10 +632,10 @@
         <v>5.328828828828858</v>
       </c>
       <c r="X2" t="n">
-        <v>4.008008008008028</v>
+        <v>3.871371371371394</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.649649649649687</v>
+        <v>6.786286286286321</v>
       </c>
     </row>
     <row r="3">
@@ -672,35 +672,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.561795289170945, 9.605192844543256]</t>
+          <t>[4.586263415859708, 9.580724717854492]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.279301872387123e-08</v>
+        <v>5.502493305442613e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.279301872387123e-08</v>
+        <v>5.502493305442613e-08</v>
       </c>
       <c r="O3" t="n">
         <v>1.540921321580579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1258159859711174, 1.9560266571900407]</t>
+          <t>[1.1258159859711165, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>2.762456929872315e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>2.762456929872315e-12</v>
+        <v>3.47410988865704e-12</v>
       </c>
       <c r="S3" t="n">
         <v>9.192060258888038</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.6182520369748365, 10.765868480801238]</t>
+          <t>[7.6197436525019855, 10.764376865274091]</t>
         </is>
       </c>
       <c r="U3" t="n">
